--- a/data/trans_camb/P16A13-Edad-trans_camb.xlsx
+++ b/data/trans_camb/P16A13-Edad-trans_camb.xlsx
@@ -664,7 +664,7 @@
         <v>-0.2004163037866061</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>-0.293187126253429</v>
+        <v>-0.2931871262534292</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.2516519845557818</v>
+        <v>-0.1586810641613868</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-0.7563421597392453</v>
+        <v>-0.7390535612232775</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-0.5761705583442612</v>
+        <v>-0.6906989922485242</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.606873403549363</v>
+        <v>-2.555357275098089</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-2.139252511750883</v>
+        <v>-2.187746539970551</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-2.658690614961874</v>
+        <v>-2.684237631038612</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-0.8446492770660045</v>
+        <v>-0.8783518180132683</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-1.286853120426098</v>
+        <v>-1.118523806562286</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>-1.302764032473772</v>
+        <v>-1.231323408682786</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.496528733037241</v>
+        <v>2.845288653580387</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.642344533805244</v>
+        <v>1.866760476396506</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.400594419522019</v>
+        <v>3.038582451635178</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.4178531263966638</v>
+        <v>0.4147863338642898</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>1.198296507139138</v>
+        <v>0.9562598869804089</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.6811342056979822</v>
+        <v>0.3637392820533054</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>1.258503662101608</v>
+        <v>1.08328786189015</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.9042659794581209</v>
+        <v>0.9259385780776832</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.099158621779885</v>
+        <v>1.242414226676314</v>
       </c>
     </row>
     <row r="7">
@@ -769,7 +769,7 @@
         <v>-0.1762077727999736</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>-0.2577726939109132</v>
+        <v>-0.2577726939109133</v>
       </c>
     </row>
     <row r="8">
@@ -779,28 +779,24 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="6" t="n">
-        <v>-0.8153303476165242</v>
-      </c>
+      <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
       <c r="E8" s="6" t="inlineStr"/>
-      <c r="F8" s="6" t="n">
-        <v>-0.9109537038854993</v>
-      </c>
+      <c r="F8" s="6" t="inlineStr"/>
       <c r="G8" s="6" t="n">
-        <v>-0.8567834328005888</v>
+        <v>-0.8777751427993918</v>
       </c>
       <c r="H8" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.5862060522632869</v>
+        <v>-0.5864262585990172</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.8098210110032101</v>
+        <v>-0.7478688575679669</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>-1</v>
+        <v>-0.8684393484226833</v>
       </c>
     </row>
     <row r="9">
@@ -813,23 +809,21 @@
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
       <c r="E9" s="6" t="inlineStr"/>
-      <c r="F9" s="6" t="n">
-        <v>0.5453510044987868</v>
-      </c>
+      <c r="F9" s="6" t="inlineStr"/>
       <c r="G9" s="6" t="n">
-        <v>1.606091368637738</v>
+        <v>1.316449872098329</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>1.579725568427374</v>
+        <v>3.972930151187958</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.953361170036103</v>
+        <v>1.734507194610968</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.23860923631966</v>
+        <v>1.531108382029946</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>2.043144963609673</v>
+        <v>1.98871340506349</v>
       </c>
     </row>
     <row r="10">
@@ -859,7 +853,7 @@
         <v>0.4778519597691214</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3813415020516782</v>
+        <v>0.381341502051678</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.7186000882005836</v>
@@ -879,31 +873,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.8899374999868154</v>
+        <v>-0.884833249009085</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.349335876466458</v>
+        <v>-1.356988986739057</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.554208771861709</v>
+        <v>-1.611054753602517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.3637840970932701</v>
+        <v>-0.4572478127629472</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.8549014270595073</v>
+        <v>-0.7801203202150842</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.9013667975098939</v>
+        <v>-0.9056629351547582</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.2625066065309863</v>
+        <v>-0.3174904891210716</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.7518636137446325</v>
+        <v>-0.7832226939926079</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.9665951290606566</v>
+        <v>-0.9051094741654797</v>
       </c>
     </row>
     <row r="12">
@@ -914,31 +908,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.229772419545909</v>
+        <v>2.137129471442125</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>1.585985647291355</v>
+        <v>1.513343612038375</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.79114674093419</v>
+        <v>1.633316604784349</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.683477068497801</v>
+        <v>2.484824249192025</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>1.888798123977782</v>
+        <v>1.82681368260899</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.065647593479909</v>
+        <v>1.969670619735084</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>1.857257757279685</v>
+        <v>1.751899843407717</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.303935115647576</v>
+        <v>1.321799458335355</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.268383820298248</v>
+        <v>1.298320447304348</v>
       </c>
     </row>
     <row r="13">
@@ -964,7 +958,7 @@
         <v>0.4178298682733038</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3334419087584805</v>
+        <v>0.3334419087584803</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.5088438515884146</v>
@@ -984,31 +978,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.4256787562999532</v>
+        <v>-0.436928090991317</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.6621697804340098</v>
+        <v>-0.5967095181757003</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.7519021691561597</v>
+        <v>-0.8090847211437443</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.2956558233553965</v>
+        <v>-0.3543080367357626</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5422070364464459</v>
+        <v>-0.5543588516802493</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.6239353186496616</v>
+        <v>-0.6453960972518947</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.1789728348927659</v>
+        <v>-0.2144534561280964</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4258921677836497</v>
+        <v>-0.4260629489478445</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.5393527634484367</v>
+        <v>-0.5246609979960393</v>
       </c>
     </row>
     <row r="15">
@@ -1019,31 +1013,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>2.145694156931472</v>
+        <v>2.037470174170305</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.602135117339486</v>
+        <v>1.556666931155884</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.008181730964223</v>
+        <v>1.590225760739727</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>4.889191105292632</v>
+        <v>3.913719568815264</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>3.175858485214889</v>
+        <v>3.283043381382591</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.366503546455454</v>
+        <v>3.270656469800133</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.951065787968435</v>
+        <v>1.753543609313247</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.255798872807128</v>
+        <v>1.300364537263363</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1.214459566728618</v>
+        <v>1.275362030722581</v>
       </c>
     </row>
     <row r="16">
@@ -1064,7 +1058,7 @@
         <v>-0.5321038605895161</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>-0.759452866889207</v>
+        <v>-0.7594528668892073</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.285735601116668</v>
@@ -1082,7 +1076,7 @@
         <v>-0.362106225042743</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>0.190225514835745</v>
+        <v>0.1902255148357446</v>
       </c>
     </row>
     <row r="17">
@@ -1093,31 +1087,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.714765570393741</v>
+        <v>-1.656667513609689</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-2.180852722152952</v>
+        <v>-2.264712638019012</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.428283417562659</v>
+        <v>-2.455507306915785</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3210672774833019</v>
+        <v>-0.4470016064599418</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.560318406035395</v>
+        <v>-1.581546270859624</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-0.6442631159307987</v>
+        <v>-0.3588538470306255</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-0.3685922777392998</v>
+        <v>-0.4335000447130777</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-1.507361873150888</v>
+        <v>-1.413518331303472</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.9276547053254371</v>
+        <v>-0.8485427702457811</v>
       </c>
     </row>
     <row r="18">
@@ -1128,31 +1122,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.949737572594706</v>
+        <v>1.924066260337271</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.104703637904616</v>
+        <v>1.161555258392218</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9142681250790174</v>
+        <v>0.8060547851453109</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.066853250636667</v>
+        <v>2.895435515454957</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.371454764992474</v>
+        <v>1.343061841019113</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.45891047088759</v>
+        <v>2.676198700459134</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.013176313891045</v>
+        <v>2.026982371939066</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.8375738932550747</v>
+        <v>0.7408283262189619</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>1.187440969794866</v>
+        <v>1.293970606646711</v>
       </c>
     </row>
     <row r="19">
@@ -1169,7 +1163,7 @@
         <v>-0.2253402968784528</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>-0.3216201707320931</v>
+        <v>-0.3216201707320933</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.6944055111244484</v>
@@ -1187,7 +1181,7 @@
         <v>-0.1727238796819455</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.09073715574220513</v>
+        <v>0.09073715574220496</v>
       </c>
     </row>
     <row r="20">
@@ -1198,31 +1192,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.5260525341595714</v>
+        <v>-0.5077239978242087</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6921269453462046</v>
+        <v>-0.6905922910503446</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7344080922142626</v>
+        <v>-0.7505949644685741</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1673347001103985</v>
+        <v>-0.2054599749156076</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6418608925124456</v>
+        <v>-0.6534908676206377</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2527374607733667</v>
+        <v>-0.1761737165450573</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.1427558384619999</v>
+        <v>-0.1724627567598944</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.5610627627371138</v>
+        <v>-0.5416240982531926</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.378714492278796</v>
+        <v>-0.3254067130355272</v>
       </c>
     </row>
     <row r="21">
@@ -1233,31 +1227,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.423451184432215</v>
+        <v>1.246930595509009</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.8462714537839664</v>
+        <v>0.7912885838563986</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.8371722458720718</v>
+        <v>0.5546587723232826</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>2.594297714087831</v>
+        <v>2.499708124105145</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.299146155724148</v>
+        <v>1.275255287670331</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.913162467480722</v>
+        <v>2.423561770307128</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.298519965471185</v>
+        <v>1.312686911873147</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.5714132529853576</v>
+        <v>0.4692438010889273</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7640305942464002</v>
+        <v>0.847341559522876</v>
       </c>
     </row>
     <row r="22">
@@ -1278,7 +1272,7 @@
         <v>-0.4109576502312005</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3.594767670545538</v>
+        <v>3.594767670545537</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>2.088248629104144</v>
@@ -1296,7 +1290,7 @@
         <v>-1.31967898951269</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.138991289335874</v>
+        <v>2.138991289335873</v>
       </c>
     </row>
     <row r="23">
@@ -1307,31 +1301,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.06974281289965976</v>
+        <v>0.148041154974782</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.489775576484752</v>
+        <v>-2.387829297699705</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.312427752932208</v>
+        <v>1.257566949160269</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.5839308810259575</v>
+        <v>-0.5680000369887058</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.394952392963305</v>
+        <v>-4.311603482469688</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.395153103162497</v>
+        <v>-1.545622138965875</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.6731943533845951</v>
+        <v>0.4986538982998817</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.716229948027433</v>
+        <v>-2.858290796250763</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.3742699772224994</v>
+        <v>0.4711224686478722</v>
       </c>
     </row>
     <row r="24">
@@ -1342,31 +1336,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>4.896152530542967</v>
+        <v>5.15811838229412</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.416333639910899</v>
+        <v>1.356454903646528</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.902694662816125</v>
+        <v>5.854812296500818</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>4.586979512722707</v>
+        <v>4.840178810046194</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>-0.2238377626925248</v>
+        <v>-0.2129605751299121</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.664690434688731</v>
+        <v>2.674755802545974</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.209064114557672</v>
+        <v>4.239691570365682</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>-0.08487208948487532</v>
+        <v>0.07245342131107584</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.639712534567601</v>
+        <v>3.561293851206238</v>
       </c>
     </row>
     <row r="25">
@@ -1401,7 +1395,7 @@
         <v>-0.3967642237536521</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.6430921650442861</v>
+        <v>0.6430921650442859</v>
       </c>
     </row>
     <row r="26">
@@ -1412,31 +1406,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.03749321248292742</v>
+        <v>-0.007725350733915252</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.6718390716614647</v>
+        <v>-0.6680731210136975</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.2302770300135417</v>
+        <v>0.2641825908264433</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.1293965981769318</v>
+        <v>-0.1369103618988685</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.7990544694554631</v>
+        <v>-0.7937989321123095</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.2485115565898037</v>
+        <v>-0.281021392430285</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.125904697122641</v>
+        <v>0.08075904593805708</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.6461201237230099</v>
+        <v>-0.6460705331969416</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.06658657011838573</v>
+        <v>0.09551200449863215</v>
       </c>
     </row>
     <row r="27">
@@ -1447,31 +1441,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>2.981819998793818</v>
+        <v>3.524468433299256</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.9618005610042089</v>
+        <v>0.9514918183553691</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.581956887364756</v>
+        <v>3.650017909561766</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.589043656020792</v>
+        <v>1.671349306532366</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>-0.02090872500488217</v>
+        <v>-0.0338209111545236</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>1.003156635470575</v>
+        <v>0.9709158598477243</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>1.593375199932347</v>
+        <v>1.629692540387719</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.002024618107486036</v>
+        <v>0.04416007965253906</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>1.380065636704956</v>
+        <v>1.384831580483026</v>
       </c>
     </row>
     <row r="28">
@@ -1510,7 +1504,7 @@
         <v>1.771292656583024</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.159347181158047</v>
+        <v>4.159347181158048</v>
       </c>
     </row>
     <row r="29">
@@ -1521,31 +1515,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.03408746662707</v>
+        <v>-2.883688028372066</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.688503983835743</v>
+        <v>-1.545636216914357</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.9945565523006863</v>
+        <v>1.375363625536288</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-1.795440353257858</v>
+        <v>-1.769974291283328</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.336913223455396</v>
+        <v>-1.38959085541217</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.9418607060514821</v>
+        <v>1.526172533485767</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>-1.461905579148232</v>
+        <v>-1.604485645531317</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>-0.3525980497435788</v>
+        <v>-0.4189652363349765</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.248034852654083</v>
+        <v>2.021657125921736</v>
       </c>
     </row>
     <row r="30">
@@ -1556,31 +1550,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>2.198136651346265</v>
+        <v>2.223642813628636</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>4.17862039717286</v>
+        <v>4.346648587268196</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>6.365759300161869</v>
+        <v>6.732302555492156</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4.986771617756925</v>
+        <v>4.910598648798433</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>5.429349826359143</v>
+        <v>5.393276513789584</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>7.121147636926533</v>
+        <v>7.290639354459319</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>2.842312140448709</v>
+        <v>2.728161757729765</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>3.865571704730562</v>
+        <v>3.991677485451951</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.265295558819392</v>
+        <v>6.062285587232433</v>
       </c>
     </row>
     <row r="31">
@@ -1615,7 +1609,7 @@
         <v>0.3651827481240966</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.8575216683547037</v>
+        <v>0.857521668354704</v>
       </c>
     </row>
     <row r="32">
@@ -1626,31 +1620,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.5908914056275523</v>
+        <v>-0.5700817303648487</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.316844569020724</v>
+        <v>-0.3142046400723574</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.1641732316828534</v>
+        <v>0.2194079942760776</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.2525575469442421</v>
+        <v>-0.258818902463858</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1981145657470652</v>
+        <v>-0.1947430834891862</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.09840410955129521</v>
+        <v>0.1911686254566459</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>-0.2447283916918093</v>
+        <v>-0.2780525616708759</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>-0.06870236894044357</v>
+        <v>-0.08002752027342457</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3503177353313743</v>
+        <v>0.343272762566687</v>
       </c>
     </row>
     <row r="33">
@@ -1661,31 +1655,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8135468029368916</v>
+        <v>0.8971402788645318</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.619693024258555</v>
+        <v>1.538058734325324</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>2.571588584417176</v>
+        <v>2.628520126337336</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.186253814016008</v>
+        <v>1.177999769796894</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.330786938570748</v>
+        <v>1.285237047049871</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.767597207524927</v>
+        <v>1.745498988675055</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.7466578900609169</v>
+        <v>0.7140953346294902</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>0.9939441111779762</v>
+        <v>1.084817459999425</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.659613763369273</v>
+        <v>1.714454847605692</v>
       </c>
     </row>
     <row r="34">
@@ -1715,7 +1709,7 @@
         <v>-1.101801944008116</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>7.580476630916418</v>
+        <v>7.580476630916412</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.324351159005782</v>
@@ -1724,7 +1718,7 @@
         <v>-0.2157972235016015</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>7.390929433055074</v>
+        <v>7.390929433055077</v>
       </c>
     </row>
     <row r="35">
@@ -1735,31 +1729,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-1.196978610169929</v>
+        <v>-0.6808803909531455</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.86282058152916</v>
+        <v>-2.737821460233567</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>3.490738137438845</v>
+        <v>3.421148268250652</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-0.7238071826111588</v>
+        <v>-0.5382739482566978</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-4.776582878659513</v>
+        <v>-4.507595778073436</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>3.912438790935818</v>
+        <v>4.039936789974736</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>0.3117115146210541</v>
+        <v>0.3328512689789394</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-2.622397578902317</v>
+        <v>-2.682732027701508</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.845730578312887</v>
+        <v>4.850172854128367</v>
       </c>
     </row>
     <row r="36">
@@ -1770,31 +1764,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>7.562048290802724</v>
+        <v>7.590785600340403</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.126843875923305</v>
+        <v>4.147724391644618</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>10.86537807267706</v>
+        <v>10.60691032800018</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>7.764831025375192</v>
+        <v>7.81156408666635</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>2.621420073553944</v>
+        <v>2.872576617436152</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.99641415454477</v>
+        <v>11.14792795306665</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>6.578633727877841</v>
+        <v>6.436040722426238</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.334859978133442</v>
+        <v>2.348730715524655</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>9.646065892484852</v>
+        <v>10.15799405151675</v>
       </c>
     </row>
     <row r="37">
@@ -1820,7 +1814,7 @@
         <v>-0.147483823633136</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>1.01469931557949</v>
+        <v>1.014699315579489</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.5544330923965026</v>
@@ -1840,31 +1834,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.232502799185541</v>
+        <v>-0.1871544134828106</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4799235835664683</v>
+        <v>-0.4542175253131854</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.4865009044088588</v>
+        <v>0.459708900219273</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.09004444625033839</v>
+        <v>-0.08180500550172663</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.5237918778997889</v>
+        <v>-0.5057541206964823</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3640737530197232</v>
+        <v>0.3861036413699465</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.006084157035769507</v>
+        <v>0.04523730542134711</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.366469198026699</v>
+        <v>-0.3895135807942407</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.6484470180371523</v>
+        <v>0.6155187663875574</v>
       </c>
     </row>
     <row r="39">
@@ -1875,31 +1869,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>2.975754767976394</v>
+        <v>2.66910299372879</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>1.680818038685316</v>
+        <v>1.59089697677961</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>4.574383265100352</v>
+        <v>4.133823794725411</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>1.402405566106645</v>
+        <v>1.409332804928182</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.4843134510558306</v>
+        <v>0.5233627808512401</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>1.961821143932612</v>
+        <v>2.20996353669578</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>1.375566575341375</v>
+        <v>1.323069873562571</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.4851982630989897</v>
+        <v>0.4872645488415093</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>2.145269016066131</v>
+        <v>2.215408495567391</v>
       </c>
     </row>
     <row r="40">
@@ -1949,31 +1943,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.8053544832326506</v>
+        <v>0.1377767303420731</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-5.552121816145279</v>
+        <v>-4.716604329534095</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>6.817423046717002</v>
+        <v>6.78800799157727</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-0.9351349016860238</v>
+        <v>-0.5496027409783804</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.3074131078264654</v>
+        <v>-0.3801402716206056</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>15.22809204226946</v>
+        <v>15.10072589880705</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>0.7649759469543062</v>
+        <v>0.6816489630673446</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-0.8735577965642638</v>
+        <v>-1.374816655714048</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>13.0216292477907</v>
+        <v>12.97726798814254</v>
       </c>
     </row>
     <row r="42">
@@ -1984,31 +1978,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>10.68516801654692</v>
+        <v>10.91823257136504</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.359356138736724</v>
+        <v>4.389097620831346</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>16.47498176939673</v>
+        <v>16.75628456758356</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7.901435855364963</v>
+        <v>8.454003428464663</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>8.778728170314826</v>
+        <v>8.684777455119876</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>23.27313187746878</v>
+        <v>23.31079186821103</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>7.824941689157851</v>
+        <v>8.012379216628492</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>5.361733319870466</v>
+        <v>5.493430072039852</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>19.50605534651844</v>
+        <v>19.63413366410709</v>
       </c>
     </row>
     <row r="43">
@@ -2054,31 +2048,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.1049993921113417</v>
+        <v>-0.01168992384304319</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.5168280974389222</v>
+        <v>-0.4855360397659217</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.5861304648073015</v>
+        <v>0.5919218849317543</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.1126440592841371</v>
+        <v>-0.0751960715309668</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.06243884502321733</v>
+        <v>-0.06793227064611837</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.426423374471182</v>
+        <v>1.453054684945573</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07678976136978588</v>
+        <v>0.07074731535146268</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.1214484363955165</v>
+        <v>-0.1511258145269324</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>1.378462784701832</v>
+        <v>1.351615072786352</v>
       </c>
     </row>
     <row r="45">
@@ -2089,31 +2083,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>2.08654354019407</v>
+        <v>1.981519823579967</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.6165453261506482</v>
+        <v>0.8688279520473202</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>3.42322679611607</v>
+        <v>3.378124116255421</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>1.700515735339132</v>
+        <v>1.816538523068817</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>1.820737743531232</v>
+        <v>1.781543184817107</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>4.740047627370472</v>
+        <v>4.933470271946978</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>1.367631257119081</v>
+        <v>1.461465394033535</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>1.004211562177345</v>
+        <v>0.9858910216744239</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>3.584198056750046</v>
+        <v>3.718233596426151</v>
       </c>
     </row>
     <row r="46">
@@ -2134,7 +2128,7 @@
         <v>0.2955750759103672</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>3.596029283761183</v>
+        <v>3.596029283761182</v>
       </c>
       <c r="F46" s="5" t="n">
         <v>1.7644611304944</v>
@@ -2143,7 +2137,7 @@
         <v>0.4604791787563046</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>4.783265305043903</v>
+        <v>4.783265305043905</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.617922061999908</v>
@@ -2163,31 +2157,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>0.6766962548122695</v>
+        <v>0.635593851058779</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.4498530338167657</v>
+        <v>-0.5570116995641137</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>2.734322242559363</v>
+        <v>2.687442135613829</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>0.7859558671164277</v>
+        <v>0.7894670149808489</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>-0.410929467310847</v>
+        <v>-0.4004839147109896</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>3.797294001341939</v>
+        <v>3.824081585927485</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>0.9245173727179744</v>
+        <v>0.9642944945294466</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>-0.2573931278123491</v>
+        <v>-0.2473238250052905</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>3.510761250302235</v>
+        <v>3.538058380614235</v>
       </c>
     </row>
     <row r="48">
@@ -2198,31 +2192,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>2.489750172835961</v>
+        <v>2.464013287518892</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>1.177226137418466</v>
+        <v>1.08871736825118</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4.61010417452581</v>
+        <v>4.507242167708733</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>2.82530457745507</v>
+        <v>2.859230706271907</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>1.443990704722173</v>
+        <v>1.473892583680909</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>5.634316796634335</v>
+        <v>5.693469673392845</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>2.329392246702045</v>
+        <v>2.307771099406982</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>1.034131124944002</v>
+        <v>0.9597336370279574</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>4.866184991825389</v>
+        <v>4.843944781871276</v>
       </c>
     </row>
     <row r="49">
@@ -2239,7 +2233,7 @@
         <v>0.1118032172414793</v>
       </c>
       <c r="E49" s="6" t="n">
-        <v>1.360221737170401</v>
+        <v>1.3602217371704</v>
       </c>
       <c r="F49" s="6" t="n">
         <v>0.4908513747626347</v>
@@ -2268,31 +2262,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.2134846986805598</v>
+        <v>0.2093235735351092</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.152776632900527</v>
+        <v>-0.2002432083091197</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.8775490456890744</v>
+        <v>0.8394283235267466</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>0.1943102852192904</v>
+        <v>0.1900595632299419</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>-0.1145611959115118</v>
+        <v>-0.09957205767884331</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.8921382615205895</v>
+        <v>0.9053565102136306</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.2603136181645762</v>
+        <v>0.2804572407063612</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>-0.0763139817258502</v>
+        <v>-0.07890097912885655</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>1.005232005065044</v>
+        <v>1.020430623992263</v>
       </c>
     </row>
     <row r="51">
@@ -2303,31 +2297,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>1.081298843250033</v>
+        <v>1.077579283164272</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.541452035363106</v>
+        <v>0.4755634689665724</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>2.123510890368582</v>
+        <v>1.996460302915254</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.8871811570832472</v>
+        <v>0.9093646316020491</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.4541331623233845</v>
+        <v>0.4650898859129645</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>1.815976810239168</v>
+        <v>1.858609501580541</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.8231101304416877</v>
+        <v>0.8367830719122428</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.3723359938493628</v>
+        <v>0.328688551824239</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>1.738177585663454</v>
+        <v>1.734042194733735</v>
       </c>
     </row>
     <row r="52">
